--- a/CISS_rc/apps/black_litterman/temp/temp_data_edb.xlsx
+++ b/CISS_rc/apps/black_litterman/temp/temp_data_edb.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gyrx-chengry\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zd_zxjtzq\RC_trashes\temp\ciss_web\CISS_rc\apps\black_litterman\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11808"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="582">
   <si>
     <t>国家</t>
   </si>
@@ -1746,11 +1747,50 @@
     <t>technology</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Monetary</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of 分类2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -1790,7 +1830,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1800,9 +1840,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1897,6 +1940,35 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ThinkPad" refreshedDate="43645.654370370372" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="192">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="J1:J1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="分类2" numFmtId="0">
+      <sharedItems containsBlank="1" count="10">
+        <s v="GDP"/>
+        <s v="Corporate"/>
+        <s v="Price"/>
+        <s v="Trade"/>
+        <s v="Investment"/>
+        <s v="Consumption"/>
+        <s v="Monetary"/>
+        <s v="population"/>
+        <s v="technology"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="16384">
   <r>
@@ -51050,12 +51122,666 @@
   </r>
   <r>
     <x v="60"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="192">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表7" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O1:P12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="11">
+        <item x="5"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of 分类2" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L1:L63" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" showAll="0">
@@ -51591,24 +52317,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L192"/>
+  <dimension ref="A1:P192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="I182" sqref="I182:J182"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="12" max="12" width="39.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="10" max="10" width="13.09765625" customWidth="1"/>
+    <col min="12" max="12" width="39.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.69921875" customWidth="1"/>
+    <col min="16" max="16" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -51642,8 +52370,14 @@
       <c r="L1" s="1" t="s">
         <v>555</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="P1" t="s">
+        <v>581</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -51677,8 +52411,14 @@
       <c r="L2" s="2" t="s">
         <v>467</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="P2" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -51712,8 +52452,14 @@
       <c r="L3" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="O3" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="P3" s="3">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -51747,8 +52493,14 @@
       <c r="L4" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="O4" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="P4" s="3">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -51782,8 +52534,14 @@
       <c r="L5" s="2" t="s">
         <v>489</v>
       </c>
+      <c r="O5" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="P5" s="3">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -51817,8 +52575,14 @@
       <c r="L6" s="2" t="s">
         <v>418</v>
       </c>
+      <c r="O6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="P6" s="3">
+        <v>61</v>
+      </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -51852,8 +52616,14 @@
       <c r="L7" s="2" t="s">
         <v>511</v>
       </c>
+      <c r="O7" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="P7" s="3">
+        <v>16</v>
+      </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -51887,8 +52657,14 @@
       <c r="L8" s="2" t="s">
         <v>517</v>
       </c>
+      <c r="O8" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="P8" s="3">
+        <v>26</v>
+      </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -51922,8 +52698,14 @@
       <c r="L9" s="2" t="s">
         <v>412</v>
       </c>
+      <c r="O9" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="P9" s="3">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -51957,8 +52739,14 @@
       <c r="L10" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="O10" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="P10" s="3">
+        <v>21</v>
+      </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -51992,8 +52780,12 @@
       <c r="L11" s="2" t="s">
         <v>166</v>
       </c>
+      <c r="O11" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -52027,8 +52819,14 @@
       <c r="L12" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="O12" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="P12" s="3">
+        <v>191</v>
+      </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -52063,7 +52861,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -52098,7 +52896,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -52133,7 +52931,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -57610,6 +58408,12 @@
       <c r="H183" t="s">
         <v>532</v>
       </c>
+      <c r="I183">
+        <v>10</v>
+      </c>
+      <c r="J183" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="184" spans="1:10">
       <c r="A184" t="s">
@@ -57636,6 +58440,12 @@
       <c r="H184" t="s">
         <v>532</v>
       </c>
+      <c r="I184">
+        <v>10</v>
+      </c>
+      <c r="J184" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="185" spans="1:10">
       <c r="A185" t="s">
@@ -57662,6 +58472,12 @@
       <c r="H185" t="s">
         <v>532</v>
       </c>
+      <c r="I185">
+        <v>10</v>
+      </c>
+      <c r="J185" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="186" spans="1:10">
       <c r="A186" t="s">
@@ -57688,6 +58504,12 @@
       <c r="H186" t="s">
         <v>532</v>
       </c>
+      <c r="I186">
+        <v>10</v>
+      </c>
+      <c r="J186" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="187" spans="1:10">
       <c r="A187" t="s">
@@ -57714,6 +58536,12 @@
       <c r="H187" t="s">
         <v>532</v>
       </c>
+      <c r="I187">
+        <v>10</v>
+      </c>
+      <c r="J187" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="188" spans="1:10">
       <c r="A188" t="s">
@@ -57740,6 +58568,12 @@
       <c r="H188" t="s">
         <v>532</v>
       </c>
+      <c r="I188">
+        <v>10</v>
+      </c>
+      <c r="J188" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="189" spans="1:10">
       <c r="A189" t="s">
@@ -57766,6 +58600,12 @@
       <c r="H189" t="s">
         <v>532</v>
       </c>
+      <c r="I189">
+        <v>10</v>
+      </c>
+      <c r="J189" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="190" spans="1:10">
       <c r="A190" t="s">
@@ -57792,6 +58632,12 @@
       <c r="H190" t="s">
         <v>532</v>
       </c>
+      <c r="I190">
+        <v>10</v>
+      </c>
+      <c r="J190" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="191" spans="1:10">
       <c r="A191" t="s">
@@ -57818,6 +58664,12 @@
       <c r="H191" t="s">
         <v>532</v>
       </c>
+      <c r="I191">
+        <v>10</v>
+      </c>
+      <c r="J191" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="192" spans="1:10">
       <c r="A192" t="s">
@@ -57843,6 +58695,12 @@
       </c>
       <c r="H192" t="s">
         <v>532</v>
+      </c>
+      <c r="I192">
+        <v>10</v>
+      </c>
+      <c r="J192" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
